--- a/Data/Fig_4_Bandit80_20/Bandit correlations.xlsx
+++ b/Data/Fig_4_Bandit80_20/Bandit correlations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexxai/Documents/GitHub/Murrell2025/Data/Fig_4_Bandit80_20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92670496-731F-9949-A706-DA506571D41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A65CDB-A8DD-4645-8662-231B4E650E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2820" windowWidth="26440" windowHeight="15440" xr2:uid="{1CA6DDCF-0F7C-5340-B661-0A05941A87A5}"/>
   </bookViews>
@@ -906,13 +906,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74147807-F680-E641-81F2-2580FA613950}">
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
